--- a/src/test/resources/FMEA_wrong_formula_Y10.xlsx
+++ b/src/test/resources/FMEA_wrong_formula_Y10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dave/zendrahealth/excel-validator/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9346E8-6798-5E41-A14E-265757558DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A363C75E-1989-5542-9BDB-ED652E596833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3720" yWindow="500" windowWidth="32120" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1059,27 +1059,6 @@
   <dxfs count="38">
     <dxf>
       <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBFBFBF"/>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
@@ -1349,6 +1328,27 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBFBFBF"/>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1388,15 +1388,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E2D4AF52-21AE-4C49-A151-AF2D2DCBE6D3}" name="Table4" displayName="Table4" ref="A1:F188" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E2D4AF52-21AE-4C49-A151-AF2D2DCBE6D3}" name="Table4" displayName="Table4" ref="A1:F188" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F188" xr:uid="{5D10D488-EF90-FC4B-B037-BFF6410D08A5}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5C7DA0C2-452C-C141-AA89-17784EC920C9}" name="ACC_ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{92B30A5C-354C-B345-86F1-C6F690C5B22A}" name="Accident" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{72744BC8-79AC-BE4C-BEAE-8924BD9F4FC1}" name="Hazard_1 " dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{0A3DBF64-99AA-4D42-9C71-133F3FC66E8B}" name="Hazard_2" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{3152972D-21D8-7D48-B0E2-087C08E8B9BB}" name="Hazard_3" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{0923D919-3DEE-F547-949D-D2E1333A3FFF}" name="Hazard_4" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{5C7DA0C2-452C-C141-AA89-17784EC920C9}" name="ACC_ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{92B30A5C-354C-B345-86F1-C6F690C5B22A}" name="Accident" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{72744BC8-79AC-BE4C-BEAE-8924BD9F4FC1}" name="Hazard_1 " dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{0A3DBF64-99AA-4D42-9C71-133F3FC66E8B}" name="Hazard_2" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{3152972D-21D8-7D48-B0E2-087C08E8B9BB}" name="Hazard_3" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{0923D919-3DEE-F547-949D-D2E1333A3FFF}" name="Hazard_4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1605,8 +1605,8 @@
   </sheetPr>
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1732,7 +1732,7 @@
         <v>130</v>
       </c>
       <c r="F2" s="27" t="str">
-        <f>VLOOKUP(E2,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E2,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ03</v>
       </c>
       <c r="G2" s="27" t="str">
@@ -1817,7 +1817,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="27" t="str">
-        <f>VLOOKUP(E3,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E3,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ03</v>
       </c>
       <c r="G3" s="27" t="str">
@@ -1900,7 +1900,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="27" t="str">
-        <f>VLOOKUP(E4,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E4,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ03</v>
       </c>
       <c r="G4" s="27" t="str">
@@ -1979,7 +1979,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="27" t="str">
-        <f>VLOOKUP(E5,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E5,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ03</v>
       </c>
       <c r="G5" s="27" t="str">
@@ -2060,7 +2060,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="27" t="str">
-        <f>VLOOKUP(E6,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E6,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ03</v>
       </c>
       <c r="G6" s="27" t="str">
@@ -2145,7 +2145,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="27" t="str">
-        <f>VLOOKUP(E7,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E7,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ03</v>
       </c>
       <c r="G7" s="27" t="str">
@@ -2228,7 +2228,7 @@
         <v>91</v>
       </c>
       <c r="F8" s="27" t="str">
-        <f>VLOOKUP(E8,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E8,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ03</v>
       </c>
       <c r="G8" s="27" t="str">
@@ -2311,7 +2311,7 @@
         <v>92</v>
       </c>
       <c r="F9" s="27" t="str">
-        <f>VLOOKUP(E9,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E9,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ03</v>
       </c>
       <c r="G9" s="27" t="str">
@@ -2396,7 +2396,7 @@
         <v>128</v>
       </c>
       <c r="F10" s="27" t="str">
-        <f>VLOOKUP(E10,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E10,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ10</v>
       </c>
       <c r="G10" s="27" t="str">
@@ -2480,152 +2480,152 @@
     <mergeCell ref="D7:D9"/>
   </mergeCells>
   <conditionalFormatting sqref="Y4:Y10 P1:P10">
-    <cfRule type="cellIs" dxfId="2" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="73" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4:Y10 P1:P10">
-    <cfRule type="cellIs" dxfId="1" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="74" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4:Y10 P1:P10">
-    <cfRule type="cellIs" dxfId="0" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="75" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1">
-    <cfRule type="cellIs" dxfId="37" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="76" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1">
-    <cfRule type="cellIs" dxfId="36" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="77" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1">
-    <cfRule type="cellIs" dxfId="35" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="78" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4:Y5">
-    <cfRule type="cellIs" dxfId="34" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="79" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4:Y5">
-    <cfRule type="cellIs" dxfId="33" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="80" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4:Y5">
-    <cfRule type="cellIs" dxfId="32" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="81" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3 P5">
-    <cfRule type="cellIs" dxfId="31" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="82" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3 P5">
-    <cfRule type="cellIs" dxfId="30" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="83" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3 P5">
-    <cfRule type="cellIs" dxfId="29" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="84" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3">
-    <cfRule type="cellIs" dxfId="28" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="85" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3">
-    <cfRule type="cellIs" dxfId="27" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="86" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3">
-    <cfRule type="cellIs" dxfId="26" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="87" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="cellIs" dxfId="25" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="70" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="cellIs" dxfId="24" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="71" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="cellIs" dxfId="23" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="72" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="cellIs" dxfId="22" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="67" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="cellIs" dxfId="21" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="68" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="cellIs" dxfId="20" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="69" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2">
-    <cfRule type="cellIs" dxfId="19" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="34" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2">
-    <cfRule type="cellIs" dxfId="18" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="35" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2">
-    <cfRule type="cellIs" dxfId="17" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="36" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6">
-    <cfRule type="cellIs" dxfId="16" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="31" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6">
-    <cfRule type="cellIs" dxfId="15" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="32" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6">
-    <cfRule type="cellIs" dxfId="14" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="33" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y7">
-    <cfRule type="cellIs" dxfId="13" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="28" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y7">
-    <cfRule type="cellIs" dxfId="12" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="29" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y7">
-    <cfRule type="cellIs" dxfId="11" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="30" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
